--- a/biology/Neurosciences/Fornix/Fornix.xlsx
+++ b/biology/Neurosciences/Fornix/Fornix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le fornix (du latin fornix, « arc, arche ») est un faisceau de fibres (axones) du cerveau en forme de deux C à concavité inférieure, proches à l'avant et plus écartés à l'arrière et en bas (d'où son autre nom : trigone, du fait qu'il forme une sorte de triangle enroulé sur lui-même). Il unit de chaque côté l'hippocampe aux corps mamillaires. Il appartient aux cinq commissures inter-hémisphérique qui unissent les deux moitiés du cerveau, avec le corps calleux, la commissure habénulaire, la commissure postérieure et la commissure antérieure. Cependant, il constitue essentiellement une voie intra-hémisphérique interconnectant l'hippocampe et le corps mamillaire du diencéphale. C'est un composant important du système limbique. Il appartient au circuit de Papez.
 Il mesure environ 10 cm de long et se compose de quatre parties principales :
@@ -515,7 +527,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il joue un rôle important pour la mémoire. 
 </t>
